--- a/data/woniuboss4.0_case_peng.xlsx
+++ b/data/woniuboss4.0_case_peng.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="20325" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="student" sheetId="2" r:id="rId2"/>
+    <sheet name="weekmark" sheetId="4" r:id="rId3"/>
+    <sheet name="sectional_examination" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +99,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>area=</t>
     </r>
     <r>
@@ -193,6 +201,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>area=</t>
     </r>
     <r>
@@ -271,6 +285,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>edit_name=</t>
     </r>
     <r>
@@ -330,6 +350,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>edit_name=</t>
     </r>
     <r>
@@ -383,6 +409,658 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>week_cases</t>
+  </si>
+  <si>
+    <t>do_query_week_test</t>
+  </si>
+  <si>
+    <r>
+      <t>s_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s_name=
+s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=WNCDC002</t>
+    </r>
+  </si>
+  <si>
+    <t>import_1</t>
+  </si>
+  <si>
+    <t>do_import_week_test</t>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+week=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JavaSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+score=100</t>
+    </r>
+  </si>
+  <si>
+    <t>import-success</t>
+  </si>
+  <si>
+    <t>import_2</t>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+week=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JavaSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+score=</t>
+    </r>
+  </si>
+  <si>
+    <t>import-fail</t>
+  </si>
+  <si>
+    <t>week_import1</t>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+week=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+file=C:\\lipeng\\test\\testing\\data\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>woniuboss4.0_case_peng.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>week_import2</t>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+week=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JavaSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+file=C:\\lipeng\\test\\testing\\data\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周考成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+remark=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JavaSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+score=100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+remark=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JavaSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+score=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+file=C:\\lipeng\\test\\testing\\data\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>woniuboss4.0_case_peng.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s_sclass=WNCDC002
+stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+file=C:\\lipeng\\test\\testing\\data\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周考成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -390,12 +1068,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +1091,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -438,7 +1131,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,23 +1183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,22 +1199,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,41 +1238,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,24 +1253,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,6 +1301,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -647,6 +1367,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -671,36 +1415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -720,48 +1434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,26 +1447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,7 +1466,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,26 +1486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +1518,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -872,151 +1535,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,7 +2257,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1712,4 +2384,342 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.3" customWidth="1"/>
+    <col min="2" max="2" width="24.7" customWidth="1"/>
+    <col min="3" max="3" width="39.9" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="60.25" customWidth="1"/>
+    <col min="6" max="6" width="39.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="57" spans="1:6">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.3" customWidth="1"/>
+    <col min="2" max="2" width="24.7" customWidth="1"/>
+    <col min="3" max="3" width="39.9" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="60.25" customWidth="1"/>
+    <col min="6" max="6" width="39.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:6">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/woniuboss4.0_case_peng.xlsx
+++ b/data/woniuboss4.0_case_peng.xlsx
@@ -2561,7 +2561,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/data/woniuboss4.0_case_peng.xlsx
+++ b/data/woniuboss4.0_case_peng.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="20325" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="student" sheetId="2" r:id="rId2"/>
     <sheet name="weekmark" sheetId="4" r:id="rId3"/>
     <sheet name="sectional_examination" sheetId="5" r:id="rId4"/>
+    <sheet name="overall_score" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -418,6 +419,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_name=</t>
     </r>
     <r>
@@ -470,6 +477,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_name=
 s_area=</t>
     </r>
@@ -501,6 +514,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -587,6 +606,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -673,6 +698,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -729,6 +760,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -827,6 +864,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -907,6 +950,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -987,6 +1036,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -1021,6 +1076,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -1061,6 +1122,243 @@
       </rPr>
       <t>.xls</t>
     </r>
+  </si>
+  <si>
+    <t>overall_score_cases</t>
+  </si>
+  <si>
+    <t>do_query_overall_test</t>
+  </si>
+  <si>
+    <r>
+      <t>s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_direction=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_name=
+s_stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_direction=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=WNCDC002</t>
+    </r>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <r>
+      <t>s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_name=
+s_stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_direction=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WNCDC002</t>
+    </r>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,8 +1428,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,33 +1482,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1192,38 +1507,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,6 +1551,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1265,13 +1617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,49 +1635,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,61 +1701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,60 +1742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1520,7 +1764,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,6 +1813,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1550,10 +1848,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1562,7 +1860,7 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1571,124 +1869,124 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2258,7 +2556,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2560,7 +2858,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2722,4 +3020,118 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.3" customWidth="1"/>
+    <col min="2" max="2" width="24.7" customWidth="1"/>
+    <col min="3" max="3" width="39.9" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="39.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/woniuboss4.0_case_peng.xlsx
+++ b/data/woniuboss4.0_case_peng.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="20325" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -286,12 +286,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>edit_name=</t>
     </r>
     <r>
@@ -301,7 +295,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>晒着</t>
+      <t>天天</t>
     </r>
     <r>
       <rPr>
@@ -351,12 +345,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>edit_name=</t>
     </r>
     <r>
@@ -366,7 +354,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>晒着</t>
+      <t>天天</t>
     </r>
     <r>
       <rPr>
@@ -1131,6 +1119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_area=</t>
     </r>
     <r>
@@ -1221,6 +1215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_area=</t>
     </r>
     <r>
@@ -1287,6 +1287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_area=</t>
     </r>
     <r>
@@ -1366,9 +1372,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1520,8 +1526,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,9 +1541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,6 +1557,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1569,72 +1731,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1642,96 +1738,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,145 +1854,145 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2555,8 +2561,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2689,8 +2695,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -3027,7 +3033,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/data/woniuboss4.0_case_peng.xlsx
+++ b/data/woniuboss4.0_case_peng.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="20325" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="student" sheetId="2" r:id="rId2"/>
     <sheet name="weekmark" sheetId="4" r:id="rId3"/>
     <sheet name="sectional_examination" sheetId="5" r:id="rId4"/>
+    <sheet name="overall_score" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -285,12 +286,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>edit_name=</t>
     </r>
     <r>
@@ -300,7 +295,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>晒着</t>
+      <t>天天</t>
     </r>
     <r>
       <rPr>
@@ -350,12 +345,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>edit_name=</t>
     </r>
     <r>
@@ -365,7 +354,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>晒着</t>
+      <t>天天</t>
     </r>
     <r>
       <rPr>
@@ -418,6 +407,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_name=</t>
     </r>
     <r>
@@ -470,6 +465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_name=
 s_area=</t>
     </r>
@@ -501,6 +502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -587,6 +594,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -673,6 +686,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -729,6 +748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -827,6 +852,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -907,6 +938,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -987,6 +1024,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -1021,6 +1064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>s_sclass=WNCDC002
 stage=</t>
     </r>
@@ -1061,6 +1110,261 @@
       </rPr>
       <t>.xls</t>
     </r>
+  </si>
+  <si>
+    <t>overall_score_cases</t>
+  </si>
+  <si>
+    <t>do_query_overall_test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_direction=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_name=
+s_stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_direction=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=WNCDC002</t>
+    </r>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s_area=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_name=
+s_stage=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_direction=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+s_sclass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WNCDC002</t>
+    </r>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1068,9 +1372,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1094,7 +1398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,8 +1434,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,33 +1488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1192,14 +1513,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,23 +1528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,9 +1541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,7 +1557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,13 +1587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,13 +1605,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,121 +1731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,60 +1748,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1520,7 +1770,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,6 +1819,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1550,10 +1854,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1562,133 +1866,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2257,8 +2561,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2391,8 +2695,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2560,7 +2864,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2722,4 +3026,118 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.3" customWidth="1"/>
+    <col min="2" max="2" width="24.7" customWidth="1"/>
+    <col min="3" max="3" width="39.9" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="39.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>